--- a/account_holdings_no_index.xlsx
+++ b/account_holdings_no_index.xlsx
@@ -43,10 +43,10 @@
     <t>USDT</t>
   </si>
   <si>
+    <t>BTC</t>
+  </si>
+  <si>
     <t>ATOM</t>
-  </si>
-  <si>
-    <t>BTC</t>
   </si>
   <si>
     <t>ALGO</t>
@@ -473,16 +473,16 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>588.00171574</v>
+        <v>863.0471265</v>
       </c>
       <c r="D3">
-        <v>53.24456156</v>
+        <v>90.62048405</v>
       </c>
       <c r="E3">
-        <v>534.75715418</v>
+        <v>772.42664245</v>
       </c>
       <c r="G3">
-        <v>588</v>
+        <v>863.05</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -493,19 +493,19 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>45.3911</v>
+        <v>0.01540148</v>
       </c>
       <c r="D4">
-        <v>0.2372</v>
+        <v>0.01540148</v>
       </c>
       <c r="E4">
-        <v>45.1539</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>11.8093</v>
+        <v>33509</v>
       </c>
       <c r="G4">
-        <v>536.04</v>
+        <v>516.09</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -516,19 +516,19 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>0.01540148</v>
+        <v>24.0438</v>
       </c>
       <c r="D5">
-        <v>0.01540148</v>
+        <v>0.2372</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>23.8066</v>
       </c>
       <c r="F5">
-        <v>34599.4</v>
+        <v>12.7</v>
       </c>
       <c r="G5">
-        <v>532.88</v>
+        <v>305.36</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.86</v>
+        <v>0.8508</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2219.01</v>
+        <v>2211.73</v>
       </c>
       <c r="G7">
         <v>0</v>

--- a/account_holdings_no_index.xlsx
+++ b/account_holdings_no_index.xlsx
@@ -473,16 +473,16 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>863.0471265</v>
+        <v>1011.67532122</v>
       </c>
       <c r="D3">
-        <v>90.62048405</v>
+        <v>120.41278248</v>
       </c>
       <c r="E3">
-        <v>772.42664245</v>
+        <v>891.26253874</v>
       </c>
       <c r="G3">
-        <v>863.05</v>
+        <v>1011.68</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -502,10 +502,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33509</v>
+        <v>34055</v>
       </c>
       <c r="G4">
-        <v>516.09</v>
+        <v>524.5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -516,19 +516,19 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>24.0438</v>
+        <v>13.1249</v>
       </c>
       <c r="D5">
         <v>0.2372</v>
       </c>
       <c r="E5">
-        <v>23.8066</v>
+        <v>12.8877</v>
       </c>
       <c r="F5">
-        <v>12.7</v>
+        <v>13.8091</v>
       </c>
       <c r="G5">
-        <v>305.36</v>
+        <v>181.24</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8508</v>
+        <v>0.8855</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2211.73</v>
+        <v>2231.28</v>
       </c>
       <c r="G7">
         <v>0</v>

--- a/account_holdings_no_index.xlsx
+++ b/account_holdings_no_index.xlsx
@@ -473,16 +473,16 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>1011.67532122</v>
+        <v>896.05924946</v>
       </c>
       <c r="D3">
-        <v>120.41278248</v>
+        <v>123.63124776</v>
       </c>
       <c r="E3">
-        <v>891.26253874</v>
+        <v>772.4280017</v>
       </c>
       <c r="G3">
-        <v>1011.68</v>
+        <v>896.0599999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -502,10 +502,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>34055</v>
+        <v>34312.7</v>
       </c>
       <c r="G4">
-        <v>524.5</v>
+        <v>528.47</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -516,19 +516,19 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>13.1249</v>
+        <v>22.0802</v>
       </c>
       <c r="D5">
         <v>0.2372</v>
       </c>
       <c r="E5">
-        <v>12.8877</v>
+        <v>21.843</v>
       </c>
       <c r="F5">
-        <v>13.8091</v>
+        <v>13.3314</v>
       </c>
       <c r="G5">
-        <v>181.24</v>
+        <v>294.36</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8855</v>
+        <v>0.9287</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2231.28</v>
+        <v>2325.29</v>
       </c>
       <c r="G7">
         <v>0</v>

--- a/account_holdings_no_index.xlsx
+++ b/account_holdings_no_index.xlsx
@@ -473,16 +473,16 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>896.05924946</v>
+        <v>901.4246910099999</v>
       </c>
       <c r="D3">
-        <v>123.63124776</v>
+        <v>128.99668931</v>
       </c>
       <c r="E3">
         <v>772.4280017</v>
       </c>
       <c r="G3">
-        <v>896.0599999999999</v>
+        <v>901.42</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -502,10 +502,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>34312.7</v>
+        <v>34760.6</v>
       </c>
       <c r="G4">
-        <v>528.47</v>
+        <v>535.36</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -525,10 +525,10 @@
         <v>21.843</v>
       </c>
       <c r="F5">
-        <v>13.3314</v>
+        <v>13.1417</v>
       </c>
       <c r="G5">
-        <v>294.36</v>
+        <v>290.17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9287</v>
+        <v>0.9288999999999999</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2325.29</v>
+        <v>2377.09</v>
       </c>
       <c r="G7">
         <v>0</v>

--- a/account_holdings_no_index.xlsx
+++ b/account_holdings_no_index.xlsx
@@ -473,16 +473,16 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>901.4246910099999</v>
+        <v>923.95727442</v>
       </c>
       <c r="D3">
-        <v>128.99668931</v>
+        <v>151.52927272</v>
       </c>
       <c r="E3">
         <v>772.4280017</v>
       </c>
       <c r="G3">
-        <v>901.42</v>
+        <v>923.96</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -502,10 +502,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>34760.6</v>
+        <v>33384.1</v>
       </c>
       <c r="G4">
-        <v>535.36</v>
+        <v>514.16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -525,10 +525,10 @@
         <v>21.843</v>
       </c>
       <c r="F5">
-        <v>13.1417</v>
+        <v>13.1414</v>
       </c>
       <c r="G5">
-        <v>290.17</v>
+        <v>290.16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9288999999999999</v>
+        <v>0.9062</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2377.09</v>
+        <v>2130.92</v>
       </c>
       <c r="G7">
         <v>0</v>

--- a/account_holdings_no_index.xlsx
+++ b/account_holdings_no_index.xlsx
@@ -40,13 +40,13 @@
     <t>USDC</t>
   </si>
   <si>
+    <t>BTC</t>
+  </si>
+  <si>
+    <t>ATOM</t>
+  </si>
+  <si>
     <t>USDT</t>
-  </si>
-  <si>
-    <t>BTC</t>
-  </si>
-  <si>
-    <t>ATOM</t>
   </si>
   <si>
     <t>ALGO</t>
@@ -453,16 +453,16 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1359.22208948</v>
+        <v>2446.59390881</v>
       </c>
       <c r="D2">
-        <v>1359.22208948</v>
+        <v>2446.59390881</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1359.22</v>
+        <v>2446.59</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,16 +473,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>923.95727442</v>
+        <v>0.03347299</v>
       </c>
       <c r="D3">
-        <v>151.52927272</v>
+        <v>0.03347299</v>
       </c>
       <c r="E3">
-        <v>772.4280017</v>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>30636.1</v>
       </c>
       <c r="G3">
-        <v>923.96</v>
+        <v>1025.48</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -493,19 +496,19 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>0.01540148</v>
+        <v>0.2366</v>
       </c>
       <c r="D4">
-        <v>0.01540148</v>
+        <v>0.2366</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>33384.1</v>
+        <v>10.03</v>
       </c>
       <c r="G4">
-        <v>514.16</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -516,19 +519,16 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>22.0802</v>
+        <v>3.4E-07</v>
       </c>
       <c r="D5">
-        <v>0.2372</v>
+        <v>3.4E-07</v>
       </c>
       <c r="E5">
-        <v>21.843</v>
-      </c>
-      <c r="F5">
-        <v>13.1414</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>290.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9062</v>
+        <v>0.7509</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2130.92</v>
+        <v>1817.83</v>
       </c>
       <c r="G7">
         <v>0</v>

--- a/account_holdings_no_index.xlsx
+++ b/account_holdings_no_index.xlsx
@@ -482,10 +482,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>30636.1</v>
+        <v>31888</v>
       </c>
       <c r="G3">
-        <v>1025.48</v>
+        <v>1067.39</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -505,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>10.03</v>
+        <v>10.8168</v>
       </c>
       <c r="G4">
-        <v>2.37</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7509</v>
+        <v>0.7804</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1817.83</v>
+        <v>1981.6</v>
       </c>
       <c r="G7">
         <v>0</v>

--- a/account_holdings_no_index.xlsx
+++ b/account_holdings_no_index.xlsx
@@ -482,10 +482,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>31888</v>
+        <v>32426.6</v>
       </c>
       <c r="G3">
-        <v>1067.39</v>
+        <v>1085.42</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -505,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>10.8168</v>
+        <v>11.2052</v>
       </c>
       <c r="G4">
-        <v>2.56</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7804</v>
+        <v>0.7886</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1981.6</v>
+        <v>2066.64</v>
       </c>
       <c r="G7">
         <v>0</v>

--- a/account_holdings_no_index.xlsx
+++ b/account_holdings_no_index.xlsx
@@ -482,10 +482,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>32426.6</v>
+        <v>33902.9</v>
       </c>
       <c r="G3">
-        <v>1085.42</v>
+        <v>1134.83</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -505,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>11.2052</v>
+        <v>11.5599</v>
       </c>
       <c r="G4">
-        <v>2.65</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7886</v>
+        <v>0.8355</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2066.64</v>
+        <v>2164.35</v>
       </c>
       <c r="G7">
         <v>0</v>

--- a/account_holdings_no_index.xlsx
+++ b/account_holdings_no_index.xlsx
@@ -482,10 +482,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33902.9</v>
+        <v>36707.3</v>
       </c>
       <c r="G3">
-        <v>1134.83</v>
+        <v>1228.7</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -505,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>11.5599</v>
+        <v>11.2099</v>
       </c>
       <c r="G4">
-        <v>2.74</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8355</v>
+        <v>0.8393</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2164.35</v>
+        <v>2175.21</v>
       </c>
       <c r="G7">
         <v>0</v>

--- a/account_holdings_no_index.xlsx
+++ b/account_holdings_no_index.xlsx
@@ -473,19 +473,19 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>0.03347299</v>
+        <v>0.03948253</v>
       </c>
       <c r="D3">
-        <v>0.03347299</v>
+        <v>0.03948253</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>36707.3</v>
+        <v>39568.8</v>
       </c>
       <c r="G3">
-        <v>1228.7</v>
+        <v>1562.28</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -505,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>11.2099</v>
+        <v>11.5853</v>
       </c>
       <c r="G4">
-        <v>2.65</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8393</v>
+        <v>0.8417</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2175.21</v>
+        <v>2316.98</v>
       </c>
       <c r="G7">
         <v>0</v>

--- a/account_holdings_no_index.xlsx
+++ b/account_holdings_no_index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>currency</t>
   </si>
@@ -37,6 +37,9 @@
     <t>dollar_value</t>
   </si>
   <si>
+    <t>USDT</t>
+  </si>
+  <si>
     <t>USDC</t>
   </si>
   <si>
@@ -46,10 +49,10 @@
     <t>ATOM</t>
   </si>
   <si>
-    <t>USDT</t>
-  </si>
-  <si>
     <t>ALGO</t>
+  </si>
+  <si>
+    <t>BTC3S</t>
   </si>
   <si>
     <t>ETH</t>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -450,19 +453,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>2446.59390881</v>
+        <v>1782.94087583</v>
       </c>
       <c r="D2">
-        <v>2446.59390881</v>
+        <v>1782.94087583</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2446.59</v>
+        <v>1782.94</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,22 +473,19 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>0.03948253</v>
+        <v>1223.29700881</v>
       </c>
       <c r="D3">
-        <v>0.03948253</v>
+        <v>1223.29700881</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>39568.8</v>
-      </c>
       <c r="G3">
-        <v>1562.28</v>
+        <v>1223.3</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -493,22 +493,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>0.2366</v>
+        <v>0.02448253</v>
       </c>
       <c r="D4">
-        <v>0.2366</v>
+        <v>0.02448253</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>11.5853</v>
+        <v>41717.8</v>
       </c>
       <c r="G4">
-        <v>2.74</v>
+        <v>1021.36</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -516,19 +516,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>3.4E-07</v>
+        <v>0.2366</v>
       </c>
       <c r="D5">
-        <v>3.4E-07</v>
+        <v>0.2366</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
+      <c r="F5">
+        <v>12.8448</v>
+      </c>
       <c r="G5">
-        <v>0</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -536,7 +539,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -548,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8417</v>
+        <v>0.8486</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -559,7 +562,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -569,9 +572,6 @@
       </c>
       <c r="E7">
         <v>0</v>
-      </c>
-      <c r="F7">
-        <v>2316.98</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -582,18 +582,41 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2521.49</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>0</v>
       </c>
     </row>

--- a/account_holdings_no_index.xlsx
+++ b/account_holdings_no_index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>currency</t>
   </si>
@@ -46,13 +46,16 @@
     <t>BTC</t>
   </si>
   <si>
+    <t>BTC3S</t>
+  </si>
+  <si>
+    <t>BTC3L</t>
+  </si>
+  <si>
     <t>ATOM</t>
   </si>
   <si>
     <t>ALGO</t>
-  </si>
-  <si>
-    <t>BTC3S</t>
   </si>
   <si>
     <t>ETH</t>
@@ -419,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,19 +456,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2">
-        <v>1782.94087583</v>
+        <v>1326.50294401</v>
       </c>
       <c r="D2">
-        <v>1782.94087583</v>
+        <v>795.32972885</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>531.17321516</v>
       </c>
       <c r="G2">
-        <v>1782.94</v>
+        <v>1326.5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,7 +476,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>1223.29700881</v>
@@ -493,7 +496,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>0.02448253</v>
@@ -505,10 +508,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>41717.8</v>
+        <v>44344.6</v>
       </c>
       <c r="G4">
-        <v>1021.36</v>
+        <v>1085.67</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -516,22 +519,19 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>0.2366</v>
+        <v>116.1203</v>
       </c>
       <c r="D5">
-        <v>0.2366</v>
+        <v>1.1076</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>12.8448</v>
+        <v>115.0127</v>
       </c>
       <c r="G5">
-        <v>3.04</v>
+        <v>116.12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -539,22 +539,19 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>114.3699</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>3.8651</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.8486</v>
+        <v>110.5048</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>114.37</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -562,19 +559,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.2366</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.2366</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
+      <c r="F7">
+        <v>13.402</v>
+      </c>
       <c r="G7">
-        <v>0</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -582,7 +582,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2521.49</v>
+        <v>0.8378</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -605,18 +605,41 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>3054.33</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>0</v>
       </c>
     </row>
